--- a/backend/temp_tender.pdf_structured.xlsx
+++ b/backend/temp_tender.pdf_structured.xlsx
@@ -121,7 +121,7 @@
     <t>temp_tender.pdf</t>
   </si>
   <si>
-    <t>2025-07-28 00:03:19</t>
+    <t>2025-07-28 18:08:29</t>
   </si>
   <si>
     <t>3 issues found</t>

--- a/backend/temp_tender.pdf_structured.xlsx
+++ b/backend/temp_tender.pdf_structured.xlsx
@@ -121,7 +121,7 @@
     <t>temp_tender.pdf</t>
   </si>
   <si>
-    <t>2025-07-28 18:08:29</t>
+    <t>2025-08-12 13:00:41</t>
   </si>
   <si>
     <t>3 issues found</t>

--- a/backend/temp_tender.pdf_structured.xlsx
+++ b/backend/temp_tender.pdf_structured.xlsx
@@ -121,7 +121,7 @@
     <t>temp_tender.pdf</t>
   </si>
   <si>
-    <t>2025-08-12 13:00:41</t>
+    <t>2025-08-12 13:21:57</t>
   </si>
   <si>
     <t>3 issues found</t>

--- a/backend/temp_tender.pdf_structured.xlsx
+++ b/backend/temp_tender.pdf_structured.xlsx
@@ -121,7 +121,7 @@
     <t>temp_tender.pdf</t>
   </si>
   <si>
-    <t>2025-08-12 13:21:57</t>
+    <t>2025-08-18 11:44:24</t>
   </si>
   <si>
     <t>3 issues found</t>
